--- a/mesures_Ntester_Over_Season_WO_S01.xlsx
+++ b/mesures_Ntester_Over_Season_WO_S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FFC5756-4DDB-46A9-BBB5-52A96EAC5635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8329FF8-50CA-49CB-AD92-55A6A886359D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,21 +154,6 @@
     <t>SPAD_Meter_15_06</t>
   </si>
   <si>
-    <t>14_05</t>
-  </si>
-  <si>
-    <t>28_05</t>
-  </si>
-  <si>
-    <t>03_06</t>
-  </si>
-  <si>
-    <t>15_06</t>
-  </si>
-  <si>
-    <t>30_06</t>
-  </si>
-  <si>
     <t>SPAD_Meter_30_06</t>
   </si>
   <si>
@@ -240,6 +225,21 @@
   <si>
     <t>Untreated</t>
   </si>
+  <si>
+    <t>0514</t>
+  </si>
+  <si>
+    <t>0528</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -293,6 +293,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1815,15 +1816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
+      <xdr:colOff>485588</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1838,8 +1839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13391030" y="78441"/>
-          <a:ext cx="5513294" cy="515471"/>
+          <a:off x="16622059" y="78440"/>
+          <a:ext cx="5292912" cy="474383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3604,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3623,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -3649,20 +3650,20 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
+      <c r="K1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -3673,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>20</v>
@@ -3720,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>20</v>
@@ -3767,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>20</v>
@@ -3814,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>20</v>
@@ -3861,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
@@ -3908,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>20</v>
@@ -3955,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>19</v>
@@ -4002,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>19</v>
@@ -4049,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>19</v>
@@ -4096,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>19</v>
@@ -4143,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
@@ -4190,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
@@ -4237,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>21</v>
@@ -4284,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>21</v>
@@ -4331,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>21</v>
@@ -4378,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>21</v>
@@ -4425,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>21</v>
@@ -4472,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>21</v>
@@ -4519,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>10</v>
@@ -4566,13 +4567,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>10</v>
@@ -4613,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>10</v>
@@ -4660,13 +4661,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>10</v>
@@ -4707,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>10</v>
@@ -4754,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>10</v>
@@ -4801,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
@@ -4848,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
@@ -4895,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>12</v>
@@ -4942,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -4989,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
@@ -5036,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>12</v>
@@ -5083,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
@@ -5130,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
@@ -5177,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>13</v>
@@ -5224,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>13</v>
@@ -5271,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>13</v>
@@ -5318,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>13</v>
@@ -5365,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>6</v>
@@ -5412,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>6</v>
@@ -5459,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>6</v>
@@ -5506,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>6</v>
@@ -5553,13 +5554,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>6</v>
@@ -5600,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>6</v>
@@ -5647,13 +5648,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>25</v>
@@ -5694,13 +5695,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>25</v>
@@ -5741,13 +5742,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>25</v>
@@ -5788,13 +5789,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>25</v>
@@ -5835,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>25</v>
@@ -5882,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>25</v>
@@ -5929,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>23</v>
@@ -5976,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>23</v>
@@ -6023,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>23</v>
@@ -6070,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>23</v>
@@ -6117,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>23</v>
@@ -6164,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>23</v>
@@ -6211,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>26</v>
@@ -6258,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>26</v>
@@ -6305,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>26</v>
@@ -6352,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>26</v>
@@ -6399,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>26</v>
@@ -6446,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>26</v>
@@ -6493,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>24</v>
@@ -6540,13 +6541,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>24</v>
@@ -6587,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>24</v>
@@ -6634,13 +6635,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>24</v>
@@ -6681,13 +6682,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>24</v>
@@ -6728,13 +6729,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>24</v>
@@ -9584,10 +9585,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
